--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_61_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_61_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA178"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="274.7898876404495" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="102.08988764044945"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="64.68988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,37 +1621,16 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY BADLY PAPER &amp; BADLY ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY BADLY PAPER &amp; BADLY ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
@@ -1766,70 +1745,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
-      <c r="B9" s="0"/>
-      <c r="C9" s="0"/>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="0"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
-      <c r="R9" s="0"/>
-      <c r="S9" s="0"/>
-      <c r="T9" s="0"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="0"/>
-      <c r="W9" s="0"/>
-      <c r="X9" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL NO-05 CUT 03' .</t>
-        </is>
-      </c>
-      <c r="Y9" s="0"/>
-      <c r="Z9" s="0"/>
-      <c r="AA9" s="0"/>
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL NO-05 CUT 03' .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY COTTON DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
@@ -1944,70 +1881,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
-      <c r="S12" s="0"/>
-      <c r="T12" s="0"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="0"/>
-      <c r="W12" s="0"/>
-      <c r="X12" s="0" t="inlineStr">
-        <is>
-          <t>INTERNEL PANEL DIRTY.</t>
-        </is>
-      </c>
-      <c r="Y12" s="0"/>
-      <c r="Z12" s="0"/>
-      <c r="AA12" s="0"/>
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNEL PANEL DIRTY.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY COTTON DUST + MUD DUST &amp; SCRATCHED </t>
-        </is>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY COTTON DUST + MUD DUST &amp; SCRATCHED ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
@@ -2234,103 +2129,40 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
-      <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
-      <c r="S16" s="0"/>
-      <c r="T16" s="0"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0" t="inlineStr">
-        <is>
-          <t>R/DOOR BTM GASKET  CUT 04' AT 02 PLS.</t>
-        </is>
-      </c>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "R/DOOR BTM GASKET  CUT 04' AT 02 PLS.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
-      <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
-      <c r="R18" s="0"/>
-      <c r="S18" s="0"/>
-      <c r="T18" s="0"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="0"/>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY OIL SPOT,TYER MARK,MUD &amp; WOOD PULP DUST.</t>
-        </is>
-      </c>
-      <c r="Y18" s="0"/>
-      <c r="Z18" s="0"/>
-      <c r="AA18" s="0"/>
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY OIL SPOT,TYER MARK,MUD &amp; WOOD PULP DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
@@ -2557,103 +2389,40 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
-      <c r="S21" s="0"/>
-      <c r="T21" s="0"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="0"/>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION</t>
-        </is>
-      </c>
-      <c r="Y21" s="0"/>
-      <c r="Z21" s="0"/>
-      <c r="AA21" s="0"/>
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-      <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="0"/>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD FLY WOOD MISSING 60'X48' &amp; UP WARD 40'X40' &amp; SCREW MISSING 03PCS</t>
-        </is>
-      </c>
-      <c r="Y22" s="0"/>
-      <c r="Z22" s="0"/>
-      <c r="AA22" s="0"/>
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD FLY WOOD MISSING 60'X48' &amp; UP WARD 40'X40' &amp; SCREW MISSING 03PCS", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
-      <c r="R23" s="0"/>
-      <c r="S23" s="0"/>
-      <c r="T23" s="0"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="0"/>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y23" s="0"/>
-      <c r="Z23" s="0"/>
-      <c r="AA23" s="0"/>
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
@@ -2880,70 +2649,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
-      <c r="R26" s="0"/>
-      <c r="S26" s="0"/>
-      <c r="T26" s="0"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="0"/>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0" t="inlineStr">
-        <is>
-          <t>F/B SCREW MISSING 05 PCS &amp; LOOSED V/PLS .</t>
-        </is>
-      </c>
-      <c r="Y26" s="0"/>
-      <c r="Z26" s="0"/>
-      <c r="AA26" s="0"/>
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B SCREW MISSING 05 PCS &amp; LOOSED V/PLS .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-      <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
-      <c r="R27" s="0"/>
-      <c r="S27" s="0"/>
-      <c r="T27" s="0"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="0"/>
-      <c r="W27" s="0"/>
-      <c r="X27" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y27" s="0"/>
-      <c r="Z27" s="0"/>
-      <c r="AA27" s="0"/>
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
@@ -3058,70 +2785,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
-      <c r="E29" s="0"/>
-      <c r="F29" s="0"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="0"/>
-      <c r="S29" s="0"/>
-      <c r="T29" s="0"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="0"/>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL INK DIRTY .</t>
-        </is>
-      </c>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
-      <c r="AA29" s="0"/>
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL INK DIRTY .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-      <c r="F30" s="0"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0"/>
-      <c r="S30" s="0"/>
-      <c r="T30" s="0"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="0"/>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
-      <c r="AA30" s="0"/>
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
@@ -3236,37 +2921,16 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
-      <c r="R32" s="0"/>
-      <c r="S32" s="0"/>
-      <c r="T32" s="0"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="0"/>
-      <c r="W32" s="0"/>
-      <c r="X32" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST .</t>
-        </is>
-      </c>
-      <c r="Y32" s="0"/>
-      <c r="Z32" s="0"/>
-      <c r="AA32" s="0"/>
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
@@ -3381,37 +3045,16 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-      <c r="K34" s="0"/>
-      <c r="L34" s="0"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="0"/>
-      <c r="O34" s="0"/>
-      <c r="P34" s="0"/>
-      <c r="Q34" s="0"/>
-      <c r="R34" s="0"/>
-      <c r="S34" s="0"/>
-      <c r="T34" s="0"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="0"/>
-      <c r="W34" s="0"/>
-      <c r="X34" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DRY OIL STAIN,TYER MARK,BLACK STAIN &amp; DUST.</t>
-        </is>
-      </c>
-      <c r="Y34" s="0"/>
-      <c r="Z34" s="0"/>
-      <c r="AA34" s="0"/>
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DRY OIL STAIN,TYER MARK,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
@@ -3526,37 +3169,16 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-      <c r="K36" s="0"/>
-      <c r="L36" s="0"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="0"/>
-      <c r="O36" s="0"/>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
-      <c r="R36" s="0"/>
-      <c r="S36" s="0"/>
-      <c r="T36" s="0"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="0"/>
-      <c r="W36" s="0"/>
-      <c r="X36" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BLACK STAIN &amp; MUD DUST .</t>
-        </is>
-      </c>
-      <c r="Y36" s="0"/>
-      <c r="Z36" s="0"/>
-      <c r="AA36" s="0"/>
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BLACK STAIN &amp; MUD DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
@@ -4007,37 +3629,16 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
-      <c r="H41" s="0"/>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-      <c r="K41" s="0"/>
-      <c r="L41" s="0"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="0"/>
-      <c r="O41" s="0"/>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-      <c r="R41" s="0"/>
-      <c r="S41" s="0"/>
-      <c r="T41" s="0"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="0"/>
-      <c r="W41" s="0"/>
-      <c r="X41" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY CARBONE BLACK STAIN DUST &amp; ODOUR.</t>
-        </is>
-      </c>
-      <c r="Y41" s="0"/>
-      <c r="Z41" s="0"/>
-      <c r="AA41" s="0"/>
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY CARBONE BLACK STAIN DUST &amp; ODOUR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
@@ -4936,37 +4537,16 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="0"/>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0"/>
-      <c r="H50" s="0"/>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="0"/>
-      <c r="L50" s="0"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="0"/>
-      <c r="O50" s="0"/>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
-      <c r="R50" s="0"/>
-      <c r="S50" s="0"/>
-      <c r="T50" s="0"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="0"/>
-      <c r="W50" s="0"/>
-      <c r="X50" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY WASTES PAPER DUST</t>
-        </is>
-      </c>
-      <c r="Y50" s="0"/>
-      <c r="Z50" s="0"/>
-      <c r="AA50" s="0"/>
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY WASTES PAPER DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
@@ -5193,37 +4773,16 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0"/>
-      <c r="B53" s="0"/>
-      <c r="C53" s="0"/>
-      <c r="D53" s="0"/>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
-      <c r="H53" s="0"/>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="0"/>
-      <c r="L53" s="0"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="0"/>
-      <c r="O53" s="0"/>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
-      <c r="R53" s="0"/>
-      <c r="S53" s="0"/>
-      <c r="T53" s="0"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="0"/>
-      <c r="W53" s="0"/>
-      <c r="X53" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y53" s="0"/>
-      <c r="Z53" s="0"/>
-      <c r="AA53" s="0"/>
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
@@ -5338,37 +4897,16 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="0"/>
-      <c r="L55" s="0"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="0"/>
-      <c r="O55" s="0"/>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
-      <c r="R55" s="0"/>
-      <c r="S55" s="0"/>
-      <c r="T55" s="0"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="0"/>
-      <c r="W55" s="0"/>
-      <c r="X55" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY PVC RESIN DUST</t>
-        </is>
-      </c>
-      <c r="Y55" s="0"/>
-      <c r="Z55" s="0"/>
-      <c r="AA55" s="0"/>
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
@@ -5483,37 +5021,16 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0"/>
-      <c r="B57" s="0"/>
-      <c r="C57" s="0"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="0"/>
-      <c r="O57" s="0"/>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
-      <c r="R57" s="0"/>
-      <c r="S57" s="0"/>
-      <c r="T57" s="0"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="0"/>
-      <c r="W57" s="0"/>
-      <c r="X57" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY PVC RESIN DUST</t>
-        </is>
-      </c>
-      <c r="Y57" s="0"/>
-      <c r="Z57" s="0"/>
-      <c r="AA57" s="0"/>
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
@@ -5628,37 +5145,16 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0"/>
-      <c r="B59" s="0"/>
-      <c r="C59" s="0"/>
-      <c r="D59" s="0"/>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
-      <c r="H59" s="0"/>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="0"/>
-      <c r="O59" s="0"/>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
-      <c r="R59" s="0"/>
-      <c r="S59" s="0"/>
-      <c r="T59" s="0"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="0"/>
-      <c r="W59" s="0"/>
-      <c r="X59" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y59" s="0"/>
-      <c r="Z59" s="0"/>
-      <c r="AA59" s="0"/>
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
@@ -5773,70 +5269,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0"/>
-      <c r="B61" s="0"/>
-      <c r="C61" s="0"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
-      <c r="H61" s="0"/>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="0"/>
-      <c r="O61" s="0"/>
-      <c r="P61" s="0"/>
-      <c r="Q61" s="0"/>
-      <c r="R61" s="0"/>
-      <c r="S61" s="0"/>
-      <c r="T61" s="0"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="0"/>
-      <c r="W61" s="0"/>
-      <c r="X61" s="0" t="inlineStr">
-        <is>
-          <t>INTERNAL PANEL DIRTY .</t>
-        </is>
-      </c>
-      <c r="Y61" s="0"/>
-      <c r="Z61" s="0"/>
-      <c r="AA61" s="0"/>
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
-      <c r="K62" s="0"/>
-      <c r="L62" s="0"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="0"/>
-      <c r="O62" s="0"/>
-      <c r="P62" s="0"/>
-      <c r="Q62" s="0"/>
-      <c r="R62" s="0"/>
-      <c r="S62" s="0"/>
-      <c r="T62" s="0"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="0"/>
-      <c r="W62" s="0"/>
-      <c r="X62" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY PVC RESIN DUST</t>
-        </is>
-      </c>
-      <c r="Y62" s="0"/>
-      <c r="Z62" s="0"/>
-      <c r="AA62" s="0"/>
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY PVC RESIN DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
@@ -6063,37 +5517,16 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0"/>
-      <c r="B65" s="0"/>
-      <c r="C65" s="0"/>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-      <c r="G65" s="0"/>
-      <c r="H65" s="0"/>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-      <c r="K65" s="0"/>
-      <c r="L65" s="0"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="0"/>
-      <c r="O65" s="0"/>
-      <c r="P65" s="0"/>
-      <c r="Q65" s="0"/>
-      <c r="R65" s="0"/>
-      <c r="S65" s="0"/>
-      <c r="T65" s="0"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="0"/>
-      <c r="W65" s="0"/>
-      <c r="X65" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BADLY OIL STAIN &amp; BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y65" s="0"/>
-      <c r="Z65" s="0"/>
-      <c r="AA65" s="0"/>
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BADLY OIL STAIN &amp; BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
@@ -6320,37 +5753,16 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0"/>
-      <c r="B68" s="0"/>
-      <c r="C68" s="0"/>
-      <c r="D68" s="0"/>
-      <c r="E68" s="0"/>
-      <c r="F68" s="0"/>
-      <c r="G68" s="0"/>
-      <c r="H68" s="0"/>
-      <c r="I68" s="0"/>
-      <c r="J68" s="0"/>
-      <c r="K68" s="0"/>
-      <c r="L68" s="0"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="0"/>
-      <c r="O68" s="0"/>
-      <c r="P68" s="0"/>
-      <c r="Q68" s="0"/>
-      <c r="R68" s="0"/>
-      <c r="S68" s="0"/>
-      <c r="T68" s="0"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="0"/>
-      <c r="W68" s="0"/>
-      <c r="X68" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y68" s="0"/>
-      <c r="Z68" s="0"/>
-      <c r="AA68" s="0"/>
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
@@ -6465,37 +5877,16 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0"/>
-      <c r="B70" s="0"/>
-      <c r="C70" s="0"/>
-      <c r="D70" s="0"/>
-      <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
-      <c r="G70" s="0"/>
-      <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-      <c r="K70" s="0"/>
-      <c r="L70" s="0"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="0"/>
-      <c r="O70" s="0"/>
-      <c r="P70" s="0"/>
-      <c r="Q70" s="0"/>
-      <c r="R70" s="0"/>
-      <c r="S70" s="0"/>
-      <c r="T70" s="0"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="0"/>
-      <c r="W70" s="0"/>
-      <c r="X70" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
-        </is>
-      </c>
-      <c r="Y70" s="0"/>
-      <c r="Z70" s="0"/>
-      <c r="AA70" s="0"/>
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
@@ -6610,37 +6001,16 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0"/>
-      <c r="B72" s="0"/>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
-      <c r="G72" s="0"/>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="0"/>
-      <c r="L72" s="0"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="0"/>
-      <c r="O72" s="0"/>
-      <c r="P72" s="0"/>
-      <c r="Q72" s="0"/>
-      <c r="R72" s="0"/>
-      <c r="S72" s="0"/>
-      <c r="T72" s="0"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="0"/>
-      <c r="W72" s="0"/>
-      <c r="X72" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
-        </is>
-      </c>
-      <c r="Y72" s="0"/>
-      <c r="Z72" s="0"/>
-      <c r="AA72" s="0"/>
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
@@ -6755,37 +6125,16 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0"/>
-      <c r="B74" s="0"/>
-      <c r="C74" s="0"/>
-      <c r="D74" s="0"/>
-      <c r="E74" s="0"/>
-      <c r="F74" s="0"/>
-      <c r="G74" s="0"/>
-      <c r="H74" s="0"/>
-      <c r="I74" s="0"/>
-      <c r="J74" s="0"/>
-      <c r="K74" s="0"/>
-      <c r="L74" s="0"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="0"/>
-      <c r="O74" s="0"/>
-      <c r="P74" s="0"/>
-      <c r="Q74" s="0"/>
-      <c r="R74" s="0"/>
-      <c r="S74" s="0"/>
-      <c r="T74" s="0"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="0"/>
-      <c r="W74" s="0"/>
-      <c r="X74" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
-        </is>
-      </c>
-      <c r="Y74" s="0"/>
-      <c r="Z74" s="0"/>
-      <c r="AA74" s="0"/>
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
@@ -6900,37 +6249,16 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0"/>
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="0"/>
-      <c r="L76" s="0"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="0"/>
-      <c r="O76" s="0"/>
-      <c r="P76" s="0"/>
-      <c r="Q76" s="0"/>
-      <c r="R76" s="0"/>
-      <c r="S76" s="0"/>
-      <c r="T76" s="0"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="0"/>
-      <c r="W76" s="0"/>
-      <c r="X76" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
-        </is>
-      </c>
-      <c r="Y76" s="0"/>
-      <c r="Z76" s="0"/>
-      <c r="AA76" s="0"/>
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
@@ -7045,37 +6373,16 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0"/>
-      <c r="B78" s="0"/>
-      <c r="C78" s="0"/>
-      <c r="D78" s="0"/>
-      <c r="E78" s="0"/>
-      <c r="F78" s="0"/>
-      <c r="G78" s="0"/>
-      <c r="H78" s="0"/>
-      <c r="I78" s="0"/>
-      <c r="J78" s="0"/>
-      <c r="K78" s="0"/>
-      <c r="L78" s="0"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="0"/>
-      <c r="O78" s="0"/>
-      <c r="P78" s="0"/>
-      <c r="Q78" s="0"/>
-      <c r="R78" s="0"/>
-      <c r="S78" s="0"/>
-      <c r="T78" s="0"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="0"/>
-      <c r="W78" s="0"/>
-      <c r="X78" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
-        </is>
-      </c>
-      <c r="Y78" s="0"/>
-      <c r="Z78" s="0"/>
-      <c r="AA78" s="0"/>
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
@@ -7526,70 +6833,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-      <c r="G83" s="0"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
-      <c r="J83" s="0"/>
-      <c r="K83" s="0"/>
-      <c r="L83" s="0"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="0"/>
-      <c r="O83" s="0"/>
-      <c r="P83" s="0"/>
-      <c r="Q83" s="0"/>
-      <c r="R83" s="0"/>
-      <c r="S83" s="0"/>
-      <c r="T83" s="0"/>
-      <c r="U83" s="4"/>
-      <c r="V83" s="0"/>
-      <c r="W83" s="0"/>
-      <c r="X83" s="0" t="inlineStr">
-        <is>
-          <t>R/SIDE PANEL PUSSED IN 48'X36'X02'</t>
-        </is>
-      </c>
-      <c r="Y83" s="0"/>
-      <c r="Z83" s="0"/>
-      <c r="AA83" s="0"/>
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL PUSSED IN 48'X36'X02'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="0"/>
-      <c r="B84" s="0"/>
-      <c r="C84" s="0"/>
-      <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
-      <c r="F84" s="0"/>
-      <c r="G84" s="0"/>
-      <c r="H84" s="0"/>
-      <c r="I84" s="0"/>
-      <c r="J84" s="0"/>
-      <c r="K84" s="0"/>
-      <c r="L84" s="0"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="0"/>
-      <c r="O84" s="0"/>
-      <c r="P84" s="0"/>
-      <c r="Q84" s="0"/>
-      <c r="R84" s="0"/>
-      <c r="S84" s="0"/>
-      <c r="T84" s="0"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="0"/>
-      <c r="W84" s="0"/>
-      <c r="X84" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y84" s="0"/>
-      <c r="Z84" s="0"/>
-      <c r="AA84" s="0"/>
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
@@ -7704,37 +6969,16 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0"/>
-      <c r="B86" s="0"/>
-      <c r="C86" s="0"/>
-      <c r="D86" s="0"/>
-      <c r="E86" s="0"/>
-      <c r="F86" s="0"/>
-      <c r="G86" s="0"/>
-      <c r="H86" s="0"/>
-      <c r="I86" s="0"/>
-      <c r="J86" s="0"/>
-      <c r="K86" s="0"/>
-      <c r="L86" s="0"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="0"/>
-      <c r="O86" s="0"/>
-      <c r="P86" s="0"/>
-      <c r="Q86" s="0"/>
-      <c r="R86" s="0"/>
-      <c r="S86" s="0"/>
-      <c r="T86" s="0"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="0"/>
-      <c r="W86" s="0"/>
-      <c r="X86" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y86" s="0"/>
-      <c r="Z86" s="0"/>
-      <c r="AA86" s="0"/>
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
@@ -7849,37 +7093,16 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0"/>
-      <c r="B88" s="0"/>
-      <c r="C88" s="0"/>
-      <c r="D88" s="0"/>
-      <c r="E88" s="0"/>
-      <c r="F88" s="0"/>
-      <c r="G88" s="0"/>
-      <c r="H88" s="0"/>
-      <c r="I88" s="0"/>
-      <c r="J88" s="0"/>
-      <c r="K88" s="0"/>
-      <c r="L88" s="0"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="0"/>
-      <c r="O88" s="0"/>
-      <c r="P88" s="0"/>
-      <c r="Q88" s="0"/>
-      <c r="R88" s="0"/>
-      <c r="S88" s="0"/>
-      <c r="T88" s="0"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="0"/>
-      <c r="W88" s="0"/>
-      <c r="X88" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y88" s="0"/>
-      <c r="Z88" s="0"/>
-      <c r="AA88" s="0"/>
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
@@ -7994,37 +7217,16 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0"/>
-      <c r="B90" s="0"/>
-      <c r="C90" s="0"/>
-      <c r="D90" s="0"/>
-      <c r="E90" s="0"/>
-      <c r="F90" s="0"/>
-      <c r="G90" s="0"/>
-      <c r="H90" s="0"/>
-      <c r="I90" s="0"/>
-      <c r="J90" s="0"/>
-      <c r="K90" s="0"/>
-      <c r="L90" s="0"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="0"/>
-      <c r="O90" s="0"/>
-      <c r="P90" s="0"/>
-      <c r="Q90" s="0"/>
-      <c r="R90" s="0"/>
-      <c r="S90" s="0"/>
-      <c r="T90" s="0"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="0"/>
-      <c r="W90" s="0"/>
-      <c r="X90" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y90" s="0"/>
-      <c r="Z90" s="0"/>
-      <c r="AA90" s="0"/>
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
@@ -8139,37 +7341,16 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0"/>
-      <c r="B92" s="0"/>
-      <c r="C92" s="0"/>
-      <c r="D92" s="0"/>
-      <c r="E92" s="0"/>
-      <c r="F92" s="0"/>
-      <c r="G92" s="0"/>
-      <c r="H92" s="0"/>
-      <c r="I92" s="0"/>
-      <c r="J92" s="0"/>
-      <c r="K92" s="0"/>
-      <c r="L92" s="0"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="0"/>
-      <c r="O92" s="0"/>
-      <c r="P92" s="0"/>
-      <c r="Q92" s="0"/>
-      <c r="R92" s="0"/>
-      <c r="S92" s="0"/>
-      <c r="T92" s="0"/>
-      <c r="U92" s="4"/>
-      <c r="V92" s="0"/>
-      <c r="W92" s="0"/>
-      <c r="X92" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y92" s="0"/>
-      <c r="Z92" s="0"/>
-      <c r="AA92" s="0"/>
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
@@ -8284,37 +7465,16 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0"/>
-      <c r="B94" s="0"/>
-      <c r="C94" s="0"/>
-      <c r="D94" s="0"/>
-      <c r="E94" s="0"/>
-      <c r="F94" s="0"/>
-      <c r="G94" s="0"/>
-      <c r="H94" s="0"/>
-      <c r="I94" s="0"/>
-      <c r="J94" s="0"/>
-      <c r="K94" s="0"/>
-      <c r="L94" s="0"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="0"/>
-      <c r="O94" s="0"/>
-      <c r="P94" s="0"/>
-      <c r="Q94" s="0"/>
-      <c r="R94" s="0"/>
-      <c r="S94" s="0"/>
-      <c r="T94" s="0"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="0"/>
-      <c r="W94" s="0"/>
-      <c r="X94" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y94" s="0"/>
-      <c r="Z94" s="0"/>
-      <c r="AA94" s="0"/>
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
@@ -8429,37 +7589,16 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
-      <c r="K96" s="0"/>
-      <c r="L96" s="0"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="0"/>
-      <c r="O96" s="0"/>
-      <c r="P96" s="0"/>
-      <c r="Q96" s="0"/>
-      <c r="R96" s="0"/>
-      <c r="S96" s="0"/>
-      <c r="T96" s="0"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="0"/>
-      <c r="W96" s="0"/>
-      <c r="X96" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y96" s="0"/>
-      <c r="Z96" s="0"/>
-      <c r="AA96" s="0"/>
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "REEFER CONTAINER-(REEFER CONTAINER)", "DOOR INNER PANEL-(DOOR INNER PANEL)", "F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
@@ -8686,103 +7825,40 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0"/>
-      <c r="B99" s="0"/>
-      <c r="C99" s="0"/>
-      <c r="D99" s="0"/>
-      <c r="E99" s="0"/>
-      <c r="F99" s="0"/>
-      <c r="G99" s="0"/>
-      <c r="H99" s="0"/>
-      <c r="I99" s="0"/>
-      <c r="J99" s="0"/>
-      <c r="K99" s="0"/>
-      <c r="L99" s="0"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="0"/>
-      <c r="O99" s="0"/>
-      <c r="P99" s="0"/>
-      <c r="Q99" s="0"/>
-      <c r="R99" s="0"/>
-      <c r="S99" s="0"/>
-      <c r="T99" s="0"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="0"/>
-      <c r="W99" s="0"/>
-      <c r="X99" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR GASKET CUT 03' &amp; 03'</t>
-        </is>
-      </c>
-      <c r="Y99" s="0"/>
-      <c r="Z99" s="0"/>
-      <c r="AA99" s="0"/>
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR GASKET CUT 03' &amp; 03'", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="0"/>
-      <c r="B100" s="0"/>
-      <c r="C100" s="0"/>
-      <c r="D100" s="0"/>
-      <c r="E100" s="0"/>
-      <c r="F100" s="0"/>
-      <c r="G100" s="0"/>
-      <c r="H100" s="0"/>
-      <c r="I100" s="0"/>
-      <c r="J100" s="0"/>
-      <c r="K100" s="0"/>
-      <c r="L100" s="0"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="0"/>
-      <c r="O100" s="0"/>
-      <c r="P100" s="0"/>
-      <c r="Q100" s="0"/>
-      <c r="R100" s="0"/>
-      <c r="S100" s="0"/>
-      <c r="T100" s="0"/>
-      <c r="U100" s="4"/>
-      <c r="V100" s="0"/>
-      <c r="W100" s="0"/>
-      <c r="X100" s="0" t="inlineStr">
-        <is>
-          <t>EXTERNAL PANEL RUSTED CORROSION.</t>
-        </is>
-      </c>
-      <c r="Y100" s="0"/>
-      <c r="Z100" s="0"/>
-      <c r="AA100" s="0"/>
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="0"/>
-      <c r="B101" s="0"/>
-      <c r="C101" s="0"/>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
-      <c r="H101" s="0"/>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
-      <c r="K101" s="0"/>
-      <c r="L101" s="0"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="0"/>
-      <c r="O101" s="0"/>
-      <c r="P101" s="0"/>
-      <c r="Q101" s="0"/>
-      <c r="R101" s="0"/>
-      <c r="S101" s="0"/>
-      <c r="T101" s="0"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="0"/>
-      <c r="W101" s="0"/>
-      <c r="X101" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
-        </is>
-      </c>
-      <c r="Y101" s="0"/>
-      <c r="Z101" s="0"/>
-      <c r="AA101" s="0"/>
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
@@ -9185,37 +8261,16 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0"/>
-      <c r="B106" s="0"/>
-      <c r="C106" s="0"/>
-      <c r="D106" s="0"/>
-      <c r="E106" s="0"/>
-      <c r="F106" s="0"/>
-      <c r="G106" s="0"/>
-      <c r="H106" s="0"/>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
-      <c r="K106" s="0"/>
-      <c r="L106" s="0"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="0"/>
-      <c r="O106" s="0"/>
-      <c r="P106" s="0"/>
-      <c r="Q106" s="0"/>
-      <c r="R106" s="0"/>
-      <c r="S106" s="0"/>
-      <c r="T106" s="0"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="0"/>
-      <c r="W106" s="0"/>
-      <c r="X106" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY DUST .</t>
-        </is>
-      </c>
-      <c r="Y106" s="0"/>
-      <c r="Z106" s="0"/>
-      <c r="AA106" s="0"/>
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
@@ -9330,37 +8385,16 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="0"/>
-      <c r="B108" s="0"/>
-      <c r="C108" s="0"/>
-      <c r="D108" s="0"/>
-      <c r="E108" s="0"/>
-      <c r="F108" s="0"/>
-      <c r="G108" s="0"/>
-      <c r="H108" s="0"/>
-      <c r="I108" s="0"/>
-      <c r="J108" s="0"/>
-      <c r="K108" s="0"/>
-      <c r="L108" s="0"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="0"/>
-      <c r="O108" s="0"/>
-      <c r="P108" s="0"/>
-      <c r="Q108" s="0"/>
-      <c r="R108" s="0"/>
-      <c r="S108" s="0"/>
-      <c r="T108" s="0"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="0"/>
-      <c r="W108" s="0"/>
-      <c r="X108" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY DUST.</t>
-        </is>
-      </c>
-      <c r="Y108" s="0"/>
-      <c r="Z108" s="0"/>
-      <c r="AA108" s="0"/>
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY DUST.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
@@ -10235,37 +9269,16 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0"/>
-      <c r="B117" s="0"/>
-      <c r="C117" s="0"/>
-      <c r="D117" s="0"/>
-      <c r="E117" s="0"/>
-      <c r="F117" s="0"/>
-      <c r="G117" s="0"/>
-      <c r="H117" s="0"/>
-      <c r="I117" s="0"/>
-      <c r="J117" s="0"/>
-      <c r="K117" s="0"/>
-      <c r="L117" s="0"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="0"/>
-      <c r="O117" s="0"/>
-      <c r="P117" s="0"/>
-      <c r="Q117" s="0"/>
-      <c r="R117" s="0"/>
-      <c r="S117" s="0"/>
-      <c r="T117" s="0"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="0"/>
-      <c r="W117" s="0"/>
-      <c r="X117" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY WASTES PAPER DUST</t>
-        </is>
-      </c>
-      <c r="Y117" s="0"/>
-      <c r="Z117" s="0"/>
-      <c r="AA117" s="0"/>
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY WASTES PAPER DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
@@ -10380,37 +9393,16 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="0"/>
-      <c r="B119" s="0"/>
-      <c r="C119" s="0"/>
-      <c r="D119" s="0"/>
-      <c r="E119" s="0"/>
-      <c r="F119" s="0"/>
-      <c r="G119" s="0"/>
-      <c r="H119" s="0"/>
-      <c r="I119" s="0"/>
-      <c r="J119" s="0"/>
-      <c r="K119" s="0"/>
-      <c r="L119" s="0"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="0"/>
-      <c r="O119" s="0"/>
-      <c r="P119" s="0"/>
-      <c r="Q119" s="0"/>
-      <c r="R119" s="0"/>
-      <c r="S119" s="0"/>
-      <c r="T119" s="0"/>
-      <c r="U119" s="4"/>
-      <c r="V119" s="0"/>
-      <c r="W119" s="0"/>
-      <c r="X119" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST</t>
-        </is>
-      </c>
-      <c r="Y119" s="0"/>
-      <c r="Z119" s="0"/>
-      <c r="AA119" s="0"/>
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
@@ -10861,37 +9853,16 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0"/>
-      <c r="B124" s="0"/>
-      <c r="C124" s="0"/>
-      <c r="D124" s="0"/>
-      <c r="E124" s="0"/>
-      <c r="F124" s="0"/>
-      <c r="G124" s="0"/>
-      <c r="H124" s="0"/>
-      <c r="I124" s="0"/>
-      <c r="J124" s="0"/>
-      <c r="K124" s="0"/>
-      <c r="L124" s="0"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="0"/>
-      <c r="O124" s="0"/>
-      <c r="P124" s="0"/>
-      <c r="Q124" s="0"/>
-      <c r="R124" s="0"/>
-      <c r="S124" s="0"/>
-      <c r="T124" s="0"/>
-      <c r="U124" s="4"/>
-      <c r="V124" s="0"/>
-      <c r="W124" s="0"/>
-      <c r="X124" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY WASTES PAPER DUST </t>
-        </is>
-      </c>
-      <c r="Y124" s="0"/>
-      <c r="Z124" s="0"/>
-      <c r="AA124" s="0"/>
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY WASTES PAPER DUST ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
@@ -11342,37 +10313,16 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="0"/>
-      <c r="B129" s="0"/>
-      <c r="C129" s="0"/>
-      <c r="D129" s="0"/>
-      <c r="E129" s="0"/>
-      <c r="F129" s="0"/>
-      <c r="G129" s="0"/>
-      <c r="H129" s="0"/>
-      <c r="I129" s="0"/>
-      <c r="J129" s="0"/>
-      <c r="K129" s="0"/>
-      <c r="L129" s="0"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="0"/>
-      <c r="O129" s="0"/>
-      <c r="P129" s="0"/>
-      <c r="Q129" s="0"/>
-      <c r="R129" s="0"/>
-      <c r="S129" s="0"/>
-      <c r="T129" s="0"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="0"/>
-      <c r="W129" s="0"/>
-      <c r="X129" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY WASTES PAPER DUST</t>
-        </is>
-      </c>
-      <c r="Y129" s="0"/>
-      <c r="Z129" s="0"/>
-      <c r="AA129" s="0"/>
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY WASTES PAPER DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
@@ -11823,37 +10773,16 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="0"/>
-      <c r="B134" s="0"/>
-      <c r="C134" s="0"/>
-      <c r="D134" s="0"/>
-      <c r="E134" s="0"/>
-      <c r="F134" s="0"/>
-      <c r="G134" s="0"/>
-      <c r="H134" s="0"/>
-      <c r="I134" s="0"/>
-      <c r="J134" s="0"/>
-      <c r="K134" s="0"/>
-      <c r="L134" s="0"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="0"/>
-      <c r="O134" s="0"/>
-      <c r="P134" s="0"/>
-      <c r="Q134" s="0"/>
-      <c r="R134" s="0"/>
-      <c r="S134" s="0"/>
-      <c r="T134" s="0"/>
-      <c r="U134" s="4"/>
-      <c r="V134" s="0"/>
-      <c r="W134" s="0"/>
-      <c r="X134" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y134" s="0"/>
-      <c r="Z134" s="0"/>
-      <c r="AA134" s="0"/>
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
@@ -11968,37 +10897,16 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0"/>
-      <c r="B136" s="0"/>
-      <c r="C136" s="0"/>
-      <c r="D136" s="0"/>
-      <c r="E136" s="0"/>
-      <c r="F136" s="0"/>
-      <c r="G136" s="0"/>
-      <c r="H136" s="0"/>
-      <c r="I136" s="0"/>
-      <c r="J136" s="0"/>
-      <c r="K136" s="0"/>
-      <c r="L136" s="0"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="0"/>
-      <c r="O136" s="0"/>
-      <c r="P136" s="0"/>
-      <c r="Q136" s="0"/>
-      <c r="R136" s="0"/>
-      <c r="S136" s="0"/>
-      <c r="T136" s="0"/>
-      <c r="U136" s="4"/>
-      <c r="V136" s="0"/>
-      <c r="W136" s="0"/>
-      <c r="X136" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y136" s="0"/>
-      <c r="Z136" s="0"/>
-      <c r="AA136" s="0"/>
+      <c r="A136" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B136" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
@@ -12113,37 +11021,16 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="0"/>
-      <c r="B138" s="0"/>
-      <c r="C138" s="0"/>
-      <c r="D138" s="0"/>
-      <c r="E138" s="0"/>
-      <c r="F138" s="0"/>
-      <c r="G138" s="0"/>
-      <c r="H138" s="0"/>
-      <c r="I138" s="0"/>
-      <c r="J138" s="0"/>
-      <c r="K138" s="0"/>
-      <c r="L138" s="0"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="0"/>
-      <c r="O138" s="0"/>
-      <c r="P138" s="0"/>
-      <c r="Q138" s="0"/>
-      <c r="R138" s="0"/>
-      <c r="S138" s="0"/>
-      <c r="T138" s="0"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="0"/>
-      <c r="W138" s="0"/>
-      <c r="X138" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y138" s="0"/>
-      <c r="Z138" s="0"/>
-      <c r="AA138" s="0"/>
+      <c r="A138" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B138" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
@@ -12258,37 +11145,16 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="0"/>
-      <c r="B140" s="0"/>
-      <c r="C140" s="0"/>
-      <c r="D140" s="0"/>
-      <c r="E140" s="0"/>
-      <c r="F140" s="0"/>
-      <c r="G140" s="0"/>
-      <c r="H140" s="0"/>
-      <c r="I140" s="0"/>
-      <c r="J140" s="0"/>
-      <c r="K140" s="0"/>
-      <c r="L140" s="0"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="0"/>
-      <c r="O140" s="0"/>
-      <c r="P140" s="0"/>
-      <c r="Q140" s="0"/>
-      <c r="R140" s="0"/>
-      <c r="S140" s="0"/>
-      <c r="T140" s="0"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="0"/>
-      <c r="W140" s="0"/>
-      <c r="X140" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y140" s="0"/>
-      <c r="Z140" s="0"/>
-      <c r="AA140" s="0"/>
+      <c r="A140" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B140" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
@@ -12403,37 +11269,16 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0"/>
-      <c r="B142" s="0"/>
-      <c r="C142" s="0"/>
-      <c r="D142" s="0"/>
-      <c r="E142" s="0"/>
-      <c r="F142" s="0"/>
-      <c r="G142" s="0"/>
-      <c r="H142" s="0"/>
-      <c r="I142" s="0"/>
-      <c r="J142" s="0"/>
-      <c r="K142" s="0"/>
-      <c r="L142" s="0"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="0"/>
-      <c r="O142" s="0"/>
-      <c r="P142" s="0"/>
-      <c r="Q142" s="0"/>
-      <c r="R142" s="0"/>
-      <c r="S142" s="0"/>
-      <c r="T142" s="0"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="0"/>
-      <c r="W142" s="0"/>
-      <c r="X142" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y142" s="0"/>
-      <c r="Z142" s="0"/>
-      <c r="AA142" s="0"/>
+      <c r="A142" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B142" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
@@ -12548,37 +11393,16 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="0"/>
-      <c r="B144" s="0"/>
-      <c r="C144" s="0"/>
-      <c r="D144" s="0"/>
-      <c r="E144" s="0"/>
-      <c r="F144" s="0"/>
-      <c r="G144" s="0"/>
-      <c r="H144" s="0"/>
-      <c r="I144" s="0"/>
-      <c r="J144" s="0"/>
-      <c r="K144" s="0"/>
-      <c r="L144" s="0"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="0"/>
-      <c r="O144" s="0"/>
-      <c r="P144" s="0"/>
-      <c r="Q144" s="0"/>
-      <c r="R144" s="0"/>
-      <c r="S144" s="0"/>
-      <c r="T144" s="0"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="0"/>
-      <c r="W144" s="0"/>
-      <c r="X144" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y144" s="0"/>
-      <c r="Z144" s="0"/>
-      <c r="AA144" s="0"/>
+      <c r="A144" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B144" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
@@ -12693,37 +11517,16 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="0"/>
-      <c r="B146" s="0"/>
-      <c r="C146" s="0"/>
-      <c r="D146" s="0"/>
-      <c r="E146" s="0"/>
-      <c r="F146" s="0"/>
-      <c r="G146" s="0"/>
-      <c r="H146" s="0"/>
-      <c r="I146" s="0"/>
-      <c r="J146" s="0"/>
-      <c r="K146" s="0"/>
-      <c r="L146" s="0"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="0"/>
-      <c r="O146" s="0"/>
-      <c r="P146" s="0"/>
-      <c r="Q146" s="0"/>
-      <c r="R146" s="0"/>
-      <c r="S146" s="0"/>
-      <c r="T146" s="0"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="0"/>
-      <c r="W146" s="0"/>
-      <c r="X146" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y146" s="0"/>
-      <c r="Z146" s="0"/>
-      <c r="AA146" s="0"/>
+      <c r="A146" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B146" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
@@ -12950,37 +11753,16 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="0"/>
-      <c r="B149" s="0"/>
-      <c r="C149" s="0"/>
-      <c r="D149" s="0"/>
-      <c r="E149" s="0"/>
-      <c r="F149" s="0"/>
-      <c r="G149" s="0"/>
-      <c r="H149" s="0"/>
-      <c r="I149" s="0"/>
-      <c r="J149" s="0"/>
-      <c r="K149" s="0"/>
-      <c r="L149" s="0"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="0"/>
-      <c r="O149" s="0"/>
-      <c r="P149" s="0"/>
-      <c r="Q149" s="0"/>
-      <c r="R149" s="0"/>
-      <c r="S149" s="0"/>
-      <c r="T149" s="0"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="0"/>
-      <c r="W149" s="0"/>
-      <c r="X149" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY DUST</t>
-        </is>
-      </c>
-      <c r="Y149" s="0"/>
-      <c r="Z149" s="0"/>
-      <c r="AA149" s="0"/>
+      <c r="A149" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B149" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
@@ -13095,37 +11877,16 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="0"/>
-      <c r="B151" s="0"/>
-      <c r="C151" s="0"/>
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
-      <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
-      <c r="J151" s="0"/>
-      <c r="K151" s="0"/>
-      <c r="L151" s="0"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="0"/>
-      <c r="O151" s="0"/>
-      <c r="P151" s="0"/>
-      <c r="Q151" s="0"/>
-      <c r="R151" s="0"/>
-      <c r="S151" s="0"/>
-      <c r="T151" s="0"/>
-      <c r="U151" s="4"/>
-      <c r="V151" s="0"/>
-      <c r="W151" s="0"/>
-      <c r="X151" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY MILK POWDER &amp; OUDOR.</t>
-        </is>
-      </c>
-      <c r="Y151" s="0"/>
-      <c r="Z151" s="0"/>
-      <c r="AA151" s="0"/>
+      <c r="A151" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B151" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY MILK POWDER &amp; OUDOR.", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
@@ -13464,37 +12225,16 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="0"/>
-      <c r="B155" s="0"/>
-      <c r="C155" s="0"/>
-      <c r="D155" s="0"/>
-      <c r="E155" s="0"/>
-      <c r="F155" s="0"/>
-      <c r="G155" s="0"/>
-      <c r="H155" s="0"/>
-      <c r="I155" s="0"/>
-      <c r="J155" s="0"/>
-      <c r="K155" s="0"/>
-      <c r="L155" s="0"/>
-      <c r="M155" s="4"/>
-      <c r="N155" s="0"/>
-      <c r="O155" s="0"/>
-      <c r="P155" s="0"/>
-      <c r="Q155" s="0"/>
-      <c r="R155" s="0"/>
-      <c r="S155" s="0"/>
-      <c r="T155" s="0"/>
-      <c r="U155" s="4"/>
-      <c r="V155" s="0"/>
-      <c r="W155" s="0"/>
-      <c r="X155" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y155" s="0"/>
-      <c r="Z155" s="0"/>
-      <c r="AA155" s="0"/>
+      <c r="A155" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B155" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
@@ -13609,37 +12349,16 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="0"/>
-      <c r="B157" s="0"/>
-      <c r="C157" s="0"/>
-      <c r="D157" s="0"/>
-      <c r="E157" s="0"/>
-      <c r="F157" s="0"/>
-      <c r="G157" s="0"/>
-      <c r="H157" s="0"/>
-      <c r="I157" s="0"/>
-      <c r="J157" s="0"/>
-      <c r="K157" s="0"/>
-      <c r="L157" s="0"/>
-      <c r="M157" s="4"/>
-      <c r="N157" s="0"/>
-      <c r="O157" s="0"/>
-      <c r="P157" s="0"/>
-      <c r="Q157" s="0"/>
-      <c r="R157" s="0"/>
-      <c r="S157" s="0"/>
-      <c r="T157" s="0"/>
-      <c r="U157" s="4"/>
-      <c r="V157" s="0"/>
-      <c r="W157" s="0"/>
-      <c r="X157" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y157" s="0"/>
-      <c r="Z157" s="0"/>
-      <c r="AA157" s="0"/>
+      <c r="A157" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B157" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
@@ -13754,37 +12473,16 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="0"/>
-      <c r="B159" s="0"/>
-      <c r="C159" s="0"/>
-      <c r="D159" s="0"/>
-      <c r="E159" s="0"/>
-      <c r="F159" s="0"/>
-      <c r="G159" s="0"/>
-      <c r="H159" s="0"/>
-      <c r="I159" s="0"/>
-      <c r="J159" s="0"/>
-      <c r="K159" s="0"/>
-      <c r="L159" s="0"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="0"/>
-      <c r="O159" s="0"/>
-      <c r="P159" s="0"/>
-      <c r="Q159" s="0"/>
-      <c r="R159" s="0"/>
-      <c r="S159" s="0"/>
-      <c r="T159" s="0"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="0"/>
-      <c r="W159" s="0"/>
-      <c r="X159" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y159" s="0"/>
-      <c r="Z159" s="0"/>
-      <c r="AA159" s="0"/>
+      <c r="A159" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B159" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
@@ -13899,37 +12597,16 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="0"/>
-      <c r="B161" s="0"/>
-      <c r="C161" s="0"/>
-      <c r="D161" s="0"/>
-      <c r="E161" s="0"/>
-      <c r="F161" s="0"/>
-      <c r="G161" s="0"/>
-      <c r="H161" s="0"/>
-      <c r="I161" s="0"/>
-      <c r="J161" s="0"/>
-      <c r="K161" s="0"/>
-      <c r="L161" s="0"/>
-      <c r="M161" s="4"/>
-      <c r="N161" s="0"/>
-      <c r="O161" s="0"/>
-      <c r="P161" s="0"/>
-      <c r="Q161" s="0"/>
-      <c r="R161" s="0"/>
-      <c r="S161" s="0"/>
-      <c r="T161" s="0"/>
-      <c r="U161" s="4"/>
-      <c r="V161" s="0"/>
-      <c r="W161" s="0"/>
-      <c r="X161" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y161" s="0"/>
-      <c r="Z161" s="0"/>
-      <c r="AA161" s="0"/>
+      <c r="A161" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B161" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
@@ -14044,37 +12721,16 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="0"/>
-      <c r="B163" s="0"/>
-      <c r="C163" s="0"/>
-      <c r="D163" s="0"/>
-      <c r="E163" s="0"/>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
-      <c r="H163" s="0"/>
-      <c r="I163" s="0"/>
-      <c r="J163" s="0"/>
-      <c r="K163" s="0"/>
-      <c r="L163" s="0"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="0"/>
-      <c r="O163" s="0"/>
-      <c r="P163" s="0"/>
-      <c r="Q163" s="0"/>
-      <c r="R163" s="0"/>
-      <c r="S163" s="0"/>
-      <c r="T163" s="0"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="0"/>
-      <c r="W163" s="0"/>
-      <c r="X163" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SCRACHED,SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y163" s="0"/>
-      <c r="Z163" s="0"/>
-      <c r="AA163" s="0"/>
+      <c r="A163" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B163" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRACHED,SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
@@ -14189,37 +12845,16 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="0"/>
-      <c r="B165" s="0"/>
-      <c r="C165" s="0"/>
-      <c r="D165" s="0"/>
-      <c r="E165" s="0"/>
-      <c r="F165" s="0"/>
-      <c r="G165" s="0"/>
-      <c r="H165" s="0"/>
-      <c r="I165" s="0"/>
-      <c r="J165" s="0"/>
-      <c r="K165" s="0"/>
-      <c r="L165" s="0"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="0"/>
-      <c r="O165" s="0"/>
-      <c r="P165" s="0"/>
-      <c r="Q165" s="0"/>
-      <c r="R165" s="0"/>
-      <c r="S165" s="0"/>
-      <c r="T165" s="0"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="0"/>
-      <c r="W165" s="0"/>
-      <c r="X165" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y165" s="0"/>
-      <c r="Z165" s="0"/>
-      <c r="AA165" s="0"/>
+      <c r="A165" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B165" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
@@ -14334,37 +12969,16 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="0"/>
-      <c r="B167" s="0"/>
-      <c r="C167" s="0"/>
-      <c r="D167" s="0"/>
-      <c r="E167" s="0"/>
-      <c r="F167" s="0"/>
-      <c r="G167" s="0"/>
-      <c r="H167" s="0"/>
-      <c r="I167" s="0"/>
-      <c r="J167" s="0"/>
-      <c r="K167" s="0"/>
-      <c r="L167" s="0"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="0"/>
-      <c r="O167" s="0"/>
-      <c r="P167" s="0"/>
-      <c r="Q167" s="0"/>
-      <c r="R167" s="0"/>
-      <c r="S167" s="0"/>
-      <c r="T167" s="0"/>
-      <c r="U167" s="4"/>
-      <c r="V167" s="0"/>
-      <c r="W167" s="0"/>
-      <c r="X167" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y167" s="0"/>
-      <c r="Z167" s="0"/>
-      <c r="AA167" s="0"/>
+      <c r="A167" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B167" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
@@ -14479,37 +13093,16 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="0"/>
-      <c r="B169" s="0"/>
-      <c r="C169" s="0"/>
-      <c r="D169" s="0"/>
-      <c r="E169" s="0"/>
-      <c r="F169" s="0"/>
-      <c r="G169" s="0"/>
-      <c r="H169" s="0"/>
-      <c r="I169" s="0"/>
-      <c r="J169" s="0"/>
-      <c r="K169" s="0"/>
-      <c r="L169" s="0"/>
-      <c r="M169" s="4"/>
-      <c r="N169" s="0"/>
-      <c r="O169" s="0"/>
-      <c r="P169" s="0"/>
-      <c r="Q169" s="0"/>
-      <c r="R169" s="0"/>
-      <c r="S169" s="0"/>
-      <c r="T169" s="0"/>
-      <c r="U169" s="4"/>
-      <c r="V169" s="0"/>
-      <c r="W169" s="0"/>
-      <c r="X169" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y169" s="0"/>
-      <c r="Z169" s="0"/>
-      <c r="AA169" s="0"/>
+      <c r="A169" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B169" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
@@ -14624,37 +13217,16 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="0"/>
-      <c r="B171" s="0"/>
-      <c r="C171" s="0"/>
-      <c r="D171" s="0"/>
-      <c r="E171" s="0"/>
-      <c r="F171" s="0"/>
-      <c r="G171" s="0"/>
-      <c r="H171" s="0"/>
-      <c r="I171" s="0"/>
-      <c r="J171" s="0"/>
-      <c r="K171" s="0"/>
-      <c r="L171" s="0"/>
-      <c r="M171" s="4"/>
-      <c r="N171" s="0"/>
-      <c r="O171" s="0"/>
-      <c r="P171" s="0"/>
-      <c r="Q171" s="0"/>
-      <c r="R171" s="0"/>
-      <c r="S171" s="0"/>
-      <c r="T171" s="0"/>
-      <c r="U171" s="4"/>
-      <c r="V171" s="0"/>
-      <c r="W171" s="0"/>
-      <c r="X171" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y171" s="0"/>
-      <c r="Z171" s="0"/>
-      <c r="AA171" s="0"/>
+      <c r="A171" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B171" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
@@ -14769,37 +13341,16 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="0"/>
-      <c r="B173" s="0"/>
-      <c r="C173" s="0"/>
-      <c r="D173" s="0"/>
-      <c r="E173" s="0"/>
-      <c r="F173" s="0"/>
-      <c r="G173" s="0"/>
-      <c r="H173" s="0"/>
-      <c r="I173" s="0"/>
-      <c r="J173" s="0"/>
-      <c r="K173" s="0"/>
-      <c r="L173" s="0"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="0"/>
-      <c r="O173" s="0"/>
-      <c r="P173" s="0"/>
-      <c r="Q173" s="0"/>
-      <c r="R173" s="0"/>
-      <c r="S173" s="0"/>
-      <c r="T173" s="0"/>
-      <c r="U173" s="4"/>
-      <c r="V173" s="0"/>
-      <c r="W173" s="0"/>
-      <c r="X173" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y173" s="0"/>
-      <c r="Z173" s="0"/>
-      <c r="AA173" s="0"/>
+      <c r="A173" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B173" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
@@ -14914,37 +13465,16 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="0"/>
-      <c r="B175" s="0"/>
-      <c r="C175" s="0"/>
-      <c r="D175" s="0"/>
-      <c r="E175" s="0"/>
-      <c r="F175" s="0"/>
-      <c r="G175" s="0"/>
-      <c r="H175" s="0"/>
-      <c r="I175" s="0"/>
-      <c r="J175" s="0"/>
-      <c r="K175" s="0"/>
-      <c r="L175" s="0"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="0"/>
-      <c r="O175" s="0"/>
-      <c r="P175" s="0"/>
-      <c r="Q175" s="0"/>
-      <c r="R175" s="0"/>
-      <c r="S175" s="0"/>
-      <c r="T175" s="0"/>
-      <c r="U175" s="4"/>
-      <c r="V175" s="0"/>
-      <c r="W175" s="0"/>
-      <c r="X175" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y175" s="0"/>
-      <c r="Z175" s="0"/>
-      <c r="AA175" s="0"/>
+      <c r="A175" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B175" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
@@ -15171,37 +13701,16 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="0"/>
-      <c r="B178" s="0"/>
-      <c r="C178" s="0"/>
-      <c r="D178" s="0"/>
-      <c r="E178" s="0"/>
-      <c r="F178" s="0"/>
-      <c r="G178" s="0"/>
-      <c r="H178" s="0"/>
-      <c r="I178" s="0"/>
-      <c r="J178" s="0"/>
-      <c r="K178" s="0"/>
-      <c r="L178" s="0"/>
-      <c r="M178" s="4"/>
-      <c r="N178" s="0"/>
-      <c r="O178" s="0"/>
-      <c r="P178" s="0"/>
-      <c r="Q178" s="0"/>
-      <c r="R178" s="0"/>
-      <c r="S178" s="0"/>
-      <c r="T178" s="0"/>
-      <c r="U178" s="4"/>
-      <c r="V178" s="0"/>
-      <c r="W178" s="0"/>
-      <c r="X178" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y178" s="0"/>
-      <c r="Z178" s="0"/>
-      <c r="AA178" s="0"/>
+      <c r="A178" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B178" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .", "", "", ""]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>

--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_61_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_61_.xlsx
@@ -1302,14 +1302,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B178"/>
+  <dimension ref="A1:AB178"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="274.7898876404495" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1330,9 +1330,9 @@
     <col min="20" max="20" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="33.889887640449444"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="64.68988764044944"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="102.08988764044945"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
     <col min="28" max="28" bestFit="true" customWidth="true" width="19.4561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY BADLY PAPER &amp; BADLY ODOUR.", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY BADLY PAPER &amp; BADLY ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1750,9 +1796,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL NO-05 CUT 03' .", "", "", ""]</t>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+      <c r="T9" s="0"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="0"/>
+      <c r="W9" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X9" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y9" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL NO-05 CUT 03' .</t>
+        </is>
+      </c>
+      <c r="Z9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB9" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1762,9 +1854,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY COTTON DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY COTTON DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1886,9 +2024,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNEL PANEL DIRTY.", "", "", ""]</t>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X12" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y12" s="0" t="inlineStr">
+        <is>
+          <t>INTERNEL PANEL DIRTY.</t>
+        </is>
+      </c>
+      <c r="Z12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB12" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1898,9 +2082,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY COTTON DUST + MUD DUST &amp; SCRATCHED ", "", "", ""]</t>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY COTTON DUST + MUD DUST &amp; SCRATCHED </t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2134,9 +2364,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "R/DOOR BTM GASKET  CUT 04' AT 02 PLS.", "", "", ""]</t>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X16" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y16" s="0" t="inlineStr">
+        <is>
+          <t>R/DOOR BTM GASKET  CUT 04' AT 02 PLS.</t>
+        </is>
+      </c>
+      <c r="Z16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB16" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2146,9 +2422,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2158,9 +2480,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY OIL SPOT,TYER MARK,MUD &amp; WOOD PULP DUST.", "", "", ""]</t>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X18" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y18" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY OIL SPOT,TYER MARK,MUD &amp; WOOD PULP DUST.</t>
+        </is>
+      </c>
+      <c r="Z18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB18" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2394,9 +2762,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION", "", "", ""]</t>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X21" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y21" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION</t>
+        </is>
+      </c>
+      <c r="Z21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB21" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2406,9 +2820,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD FLY WOOD MISSING 60'X48' &amp; UP WARD 40'X40' &amp; SCREW MISSING 03PCS", "", "", ""]</t>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X22" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y22" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD FLY WOOD MISSING 60'X48' &amp; UP WARD 40'X40' &amp; SCREW MISSING 03PCS</t>
+        </is>
+      </c>
+      <c r="Z22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB22" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2418,9 +2878,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X23" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y23" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB23" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2654,9 +3160,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B SCREW MISSING 05 PCS &amp; LOOSED V/PLS .", "", "", ""]</t>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X26" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y26" s="0" t="inlineStr">
+        <is>
+          <t>F/B SCREW MISSING 05 PCS &amp; LOOSED V/PLS .</t>
+        </is>
+      </c>
+      <c r="Z26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB26" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2666,9 +3218,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X27" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y27" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB27" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2790,9 +3388,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL INK DIRTY .", "", "", ""]</t>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X29" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y29" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL INK DIRTY .</t>
+        </is>
+      </c>
+      <c r="Z29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB29" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2802,9 +3446,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X30" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y30" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB30" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2926,9 +3616,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="0"/>
+      <c r="S32" s="0"/>
+      <c r="T32" s="0"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X32" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y32" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST .</t>
+        </is>
+      </c>
+      <c r="Z32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB32" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3050,9 +3786,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DRY OIL STAIN,TYER MARK,BLACK STAIN &amp; DUST.", "", "", ""]</t>
+      <c r="B34" s="0"/>
+      <c r="C34" s="0"/>
+      <c r="D34" s="0"/>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="0"/>
+      <c r="S34" s="0"/>
+      <c r="T34" s="0"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="0"/>
+      <c r="W34" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X34" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y34" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DRY OIL STAIN,TYER MARK,BLACK STAIN &amp; DUST.</t>
+        </is>
+      </c>
+      <c r="Z34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB34" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3174,9 +3956,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BLACK STAIN &amp; MUD DUST .", "", "", ""]</t>
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
+      <c r="D36" s="0"/>
+      <c r="E36" s="0"/>
+      <c r="F36" s="0"/>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
+      <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="0"/>
+      <c r="O36" s="0"/>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
+      <c r="R36" s="0"/>
+      <c r="S36" s="0"/>
+      <c r="T36" s="0"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="0"/>
+      <c r="W36" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X36" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y36" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BLACK STAIN &amp; MUD DUST .</t>
+        </is>
+      </c>
+      <c r="Z36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB36" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -3634,9 +4462,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY CARBONE BLACK STAIN DUST &amp; ODOUR.", "", "", ""]</t>
+      <c r="B41" s="0"/>
+      <c r="C41" s="0"/>
+      <c r="D41" s="0"/>
+      <c r="E41" s="0"/>
+      <c r="F41" s="0"/>
+      <c r="G41" s="0"/>
+      <c r="H41" s="0"/>
+      <c r="I41" s="0"/>
+      <c r="J41" s="0"/>
+      <c r="K41" s="0"/>
+      <c r="L41" s="0"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="0"/>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+      <c r="R41" s="0"/>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="0"/>
+      <c r="W41" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X41" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y41" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY CARBONE BLACK STAIN DUST &amp; ODOUR.</t>
+        </is>
+      </c>
+      <c r="Z41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB41" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4542,9 +5416,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY WASTES PAPER DUST", "", "", ""]</t>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="0"/>
+      <c r="E50" s="0"/>
+      <c r="F50" s="0"/>
+      <c r="G50" s="0"/>
+      <c r="H50" s="0"/>
+      <c r="I50" s="0"/>
+      <c r="J50" s="0"/>
+      <c r="K50" s="0"/>
+      <c r="L50" s="0"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="0"/>
+      <c r="O50" s="0"/>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
+      <c r="R50" s="0"/>
+      <c r="S50" s="0"/>
+      <c r="T50" s="0"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="0"/>
+      <c r="W50" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X50" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y50" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY WASTES PAPER DUST</t>
+        </is>
+      </c>
+      <c r="Z50" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA50" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB50" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4778,9 +5698,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0"/>
+      <c r="G53" s="0"/>
+      <c r="H53" s="0"/>
+      <c r="I53" s="0"/>
+      <c r="J53" s="0"/>
+      <c r="K53" s="0"/>
+      <c r="L53" s="0"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="0"/>
+      <c r="O53" s="0"/>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
+      <c r="R53" s="0"/>
+      <c r="S53" s="0"/>
+      <c r="T53" s="0"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="0"/>
+      <c r="W53" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X53" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y53" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB53" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -4902,9 +5868,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B55" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST", "", "", ""]</t>
+      <c r="B55" s="0"/>
+      <c r="C55" s="0"/>
+      <c r="D55" s="0"/>
+      <c r="E55" s="0"/>
+      <c r="F55" s="0"/>
+      <c r="G55" s="0"/>
+      <c r="H55" s="0"/>
+      <c r="I55" s="0"/>
+      <c r="J55" s="0"/>
+      <c r="K55" s="0"/>
+      <c r="L55" s="0"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="0"/>
+      <c r="O55" s="0"/>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
+      <c r="R55" s="0"/>
+      <c r="S55" s="0"/>
+      <c r="T55" s="0"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="0"/>
+      <c r="W55" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X55" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y55" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY PVC RESIN DUST</t>
+        </is>
+      </c>
+      <c r="Z55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB55" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5026,9 +6038,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B57" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST", "", "", ""]</t>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+      <c r="D57" s="0"/>
+      <c r="E57" s="0"/>
+      <c r="F57" s="0"/>
+      <c r="G57" s="0"/>
+      <c r="H57" s="0"/>
+      <c r="I57" s="0"/>
+      <c r="J57" s="0"/>
+      <c r="K57" s="0"/>
+      <c r="L57" s="0"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="0"/>
+      <c r="O57" s="0"/>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
+      <c r="R57" s="0"/>
+      <c r="S57" s="0"/>
+      <c r="T57" s="0"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="0"/>
+      <c r="W57" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X57" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y57" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY PVC RESIN DUST</t>
+        </is>
+      </c>
+      <c r="Z57" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA57" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB57" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5150,9 +6208,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B59" s="0"/>
+      <c r="C59" s="0"/>
+      <c r="D59" s="0"/>
+      <c r="E59" s="0"/>
+      <c r="F59" s="0"/>
+      <c r="G59" s="0"/>
+      <c r="H59" s="0"/>
+      <c r="I59" s="0"/>
+      <c r="J59" s="0"/>
+      <c r="K59" s="0"/>
+      <c r="L59" s="0"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="0"/>
+      <c r="O59" s="0"/>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
+      <c r="R59" s="0"/>
+      <c r="S59" s="0"/>
+      <c r="T59" s="0"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="0"/>
+      <c r="W59" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X59" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y59" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z59" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA59" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB59" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5274,9 +6378,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B61" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "INTERNAL PANEL DIRTY .", "", "", ""]</t>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+      <c r="D61" s="0"/>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+      <c r="G61" s="0"/>
+      <c r="H61" s="0"/>
+      <c r="I61" s="0"/>
+      <c r="J61" s="0"/>
+      <c r="K61" s="0"/>
+      <c r="L61" s="0"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="0"/>
+      <c r="O61" s="0"/>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
+      <c r="R61" s="0"/>
+      <c r="S61" s="0"/>
+      <c r="T61" s="0"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="0"/>
+      <c r="W61" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X61" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y61" s="0" t="inlineStr">
+        <is>
+          <t>INTERNAL PANEL DIRTY .</t>
+        </is>
+      </c>
+      <c r="Z61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB61" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5286,9 +6436,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B62" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD DIRTY BY PVC RESIN DUST", "", "", ""]</t>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+      <c r="G62" s="0"/>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="0"/>
+      <c r="O62" s="0"/>
+      <c r="P62" s="0"/>
+      <c r="Q62" s="0"/>
+      <c r="R62" s="0"/>
+      <c r="S62" s="0"/>
+      <c r="T62" s="0"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="0"/>
+      <c r="W62" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X62" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y62" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY PVC RESIN DUST</t>
+        </is>
+      </c>
+      <c r="Z62" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA62" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB62" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5522,9 +6718,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B65" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BADLY OIL STAIN &amp; BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B65" s="0"/>
+      <c r="C65" s="0"/>
+      <c r="D65" s="0"/>
+      <c r="E65" s="0"/>
+      <c r="F65" s="0"/>
+      <c r="G65" s="0"/>
+      <c r="H65" s="0"/>
+      <c r="I65" s="0"/>
+      <c r="J65" s="0"/>
+      <c r="K65" s="0"/>
+      <c r="L65" s="0"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="0"/>
+      <c r="O65" s="0"/>
+      <c r="P65" s="0"/>
+      <c r="Q65" s="0"/>
+      <c r="R65" s="0"/>
+      <c r="S65" s="0"/>
+      <c r="T65" s="0"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="0"/>
+      <c r="W65" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X65" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y65" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BADLY OIL STAIN &amp; BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z65" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA65" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB65" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5758,9 +7000,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B68" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B68" s="0"/>
+      <c r="C68" s="0"/>
+      <c r="D68" s="0"/>
+      <c r="E68" s="0"/>
+      <c r="F68" s="0"/>
+      <c r="G68" s="0"/>
+      <c r="H68" s="0"/>
+      <c r="I68" s="0"/>
+      <c r="J68" s="0"/>
+      <c r="K68" s="0"/>
+      <c r="L68" s="0"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="0"/>
+      <c r="O68" s="0"/>
+      <c r="P68" s="0"/>
+      <c r="Q68" s="0"/>
+      <c r="R68" s="0"/>
+      <c r="S68" s="0"/>
+      <c r="T68" s="0"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="0"/>
+      <c r="W68" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X68" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y68" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z68" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA68" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB68" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -5882,9 +7170,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+      <c r="B70" s="0"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="0"/>
+      <c r="E70" s="0"/>
+      <c r="F70" s="0"/>
+      <c r="G70" s="0"/>
+      <c r="H70" s="0"/>
+      <c r="I70" s="0"/>
+      <c r="J70" s="0"/>
+      <c r="K70" s="0"/>
+      <c r="L70" s="0"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="0"/>
+      <c r="O70" s="0"/>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
+      <c r="R70" s="0"/>
+      <c r="S70" s="0"/>
+      <c r="T70" s="0"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="0"/>
+      <c r="W70" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X70" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y70" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
+        </is>
+      </c>
+      <c r="Z70" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA70" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB70" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6006,9 +7340,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="D72" s="0"/>
+      <c r="E72" s="0"/>
+      <c r="F72" s="0"/>
+      <c r="G72" s="0"/>
+      <c r="H72" s="0"/>
+      <c r="I72" s="0"/>
+      <c r="J72" s="0"/>
+      <c r="K72" s="0"/>
+      <c r="L72" s="0"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="0"/>
+      <c r="O72" s="0"/>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
+      <c r="R72" s="0"/>
+      <c r="S72" s="0"/>
+      <c r="T72" s="0"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="0"/>
+      <c r="W72" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X72" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y72" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
+        </is>
+      </c>
+      <c r="Z72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB72" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6130,9 +7510,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B74" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+      <c r="B74" s="0"/>
+      <c r="C74" s="0"/>
+      <c r="D74" s="0"/>
+      <c r="E74" s="0"/>
+      <c r="F74" s="0"/>
+      <c r="G74" s="0"/>
+      <c r="H74" s="0"/>
+      <c r="I74" s="0"/>
+      <c r="J74" s="0"/>
+      <c r="K74" s="0"/>
+      <c r="L74" s="0"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="0"/>
+      <c r="O74" s="0"/>
+      <c r="P74" s="0"/>
+      <c r="Q74" s="0"/>
+      <c r="R74" s="0"/>
+      <c r="S74" s="0"/>
+      <c r="T74" s="0"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="0"/>
+      <c r="W74" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X74" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y74" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
+        </is>
+      </c>
+      <c r="Z74" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA74" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB74" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6254,9 +7680,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+      <c r="B76" s="0"/>
+      <c r="C76" s="0"/>
+      <c r="D76" s="0"/>
+      <c r="E76" s="0"/>
+      <c r="F76" s="0"/>
+      <c r="G76" s="0"/>
+      <c r="H76" s="0"/>
+      <c r="I76" s="0"/>
+      <c r="J76" s="0"/>
+      <c r="K76" s="0"/>
+      <c r="L76" s="0"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="0"/>
+      <c r="O76" s="0"/>
+      <c r="P76" s="0"/>
+      <c r="Q76" s="0"/>
+      <c r="R76" s="0"/>
+      <c r="S76" s="0"/>
+      <c r="T76" s="0"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="0"/>
+      <c r="W76" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X76" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y76" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
+        </is>
+      </c>
+      <c r="Z76" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA76" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB76" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6378,9 +7850,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B78" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .", "", "", ""]</t>
+      <c r="B78" s="0"/>
+      <c r="C78" s="0"/>
+      <c r="D78" s="0"/>
+      <c r="E78" s="0"/>
+      <c r="F78" s="0"/>
+      <c r="G78" s="0"/>
+      <c r="H78" s="0"/>
+      <c r="I78" s="0"/>
+      <c r="J78" s="0"/>
+      <c r="K78" s="0"/>
+      <c r="L78" s="0"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="0"/>
+      <c r="O78" s="0"/>
+      <c r="P78" s="0"/>
+      <c r="Q78" s="0"/>
+      <c r="R78" s="0"/>
+      <c r="S78" s="0"/>
+      <c r="T78" s="0"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="0"/>
+      <c r="W78" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X78" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y78" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY FISH MEAL DUST &amp; BAD SMEEL .</t>
+        </is>
+      </c>
+      <c r="Z78" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA78" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB78" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6838,9 +8356,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "R/SIDE PANEL PUSSED IN 48'X36'X02'", "", "", ""]</t>
+      <c r="B83" s="0"/>
+      <c r="C83" s="0"/>
+      <c r="D83" s="0"/>
+      <c r="E83" s="0"/>
+      <c r="F83" s="0"/>
+      <c r="G83" s="0"/>
+      <c r="H83" s="0"/>
+      <c r="I83" s="0"/>
+      <c r="J83" s="0"/>
+      <c r="K83" s="0"/>
+      <c r="L83" s="0"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="0"/>
+      <c r="O83" s="0"/>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
+      <c r="R83" s="0"/>
+      <c r="S83" s="0"/>
+      <c r="T83" s="0"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="0"/>
+      <c r="W83" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X83" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y83" s="0" t="inlineStr">
+        <is>
+          <t>R/SIDE PANEL PUSSED IN 48'X36'X02'</t>
+        </is>
+      </c>
+      <c r="Z83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB83" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6850,9 +8414,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B84" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B84" s="0"/>
+      <c r="C84" s="0"/>
+      <c r="D84" s="0"/>
+      <c r="E84" s="0"/>
+      <c r="F84" s="0"/>
+      <c r="G84" s="0"/>
+      <c r="H84" s="0"/>
+      <c r="I84" s="0"/>
+      <c r="J84" s="0"/>
+      <c r="K84" s="0"/>
+      <c r="L84" s="0"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="0"/>
+      <c r="O84" s="0"/>
+      <c r="P84" s="0"/>
+      <c r="Q84" s="0"/>
+      <c r="R84" s="0"/>
+      <c r="S84" s="0"/>
+      <c r="T84" s="0"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="0"/>
+      <c r="W84" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X84" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y84" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z84" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA84" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB84" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -6974,9 +8584,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B86" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B86" s="0"/>
+      <c r="C86" s="0"/>
+      <c r="D86" s="0"/>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+      <c r="G86" s="0"/>
+      <c r="H86" s="0"/>
+      <c r="I86" s="0"/>
+      <c r="J86" s="0"/>
+      <c r="K86" s="0"/>
+      <c r="L86" s="0"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="0"/>
+      <c r="O86" s="0"/>
+      <c r="P86" s="0"/>
+      <c r="Q86" s="0"/>
+      <c r="R86" s="0"/>
+      <c r="S86" s="0"/>
+      <c r="T86" s="0"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="0"/>
+      <c r="W86" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X86" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y86" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z86" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA86" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB86" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7098,9 +8754,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B88" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B88" s="0"/>
+      <c r="C88" s="0"/>
+      <c r="D88" s="0"/>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+      <c r="G88" s="0"/>
+      <c r="H88" s="0"/>
+      <c r="I88" s="0"/>
+      <c r="J88" s="0"/>
+      <c r="K88" s="0"/>
+      <c r="L88" s="0"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="0"/>
+      <c r="O88" s="0"/>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
+      <c r="R88" s="0"/>
+      <c r="S88" s="0"/>
+      <c r="T88" s="0"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="0"/>
+      <c r="W88" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X88" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y88" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z88" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA88" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB88" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7222,9 +8924,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B90" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B90" s="0"/>
+      <c r="C90" s="0"/>
+      <c r="D90" s="0"/>
+      <c r="E90" s="0"/>
+      <c r="F90" s="0"/>
+      <c r="G90" s="0"/>
+      <c r="H90" s="0"/>
+      <c r="I90" s="0"/>
+      <c r="J90" s="0"/>
+      <c r="K90" s="0"/>
+      <c r="L90" s="0"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="0"/>
+      <c r="O90" s="0"/>
+      <c r="P90" s="0"/>
+      <c r="Q90" s="0"/>
+      <c r="R90" s="0"/>
+      <c r="S90" s="0"/>
+      <c r="T90" s="0"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="0"/>
+      <c r="W90" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X90" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y90" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z90" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA90" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB90" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7346,9 +9094,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B92" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B92" s="0"/>
+      <c r="C92" s="0"/>
+      <c r="D92" s="0"/>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
+      <c r="H92" s="0"/>
+      <c r="I92" s="0"/>
+      <c r="J92" s="0"/>
+      <c r="K92" s="0"/>
+      <c r="L92" s="0"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="0"/>
+      <c r="O92" s="0"/>
+      <c r="P92" s="0"/>
+      <c r="Q92" s="0"/>
+      <c r="R92" s="0"/>
+      <c r="S92" s="0"/>
+      <c r="T92" s="0"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="0"/>
+      <c r="W92" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X92" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y92" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z92" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA92" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB92" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7470,9 +9264,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B94" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B94" s="0"/>
+      <c r="C94" s="0"/>
+      <c r="D94" s="0"/>
+      <c r="E94" s="0"/>
+      <c r="F94" s="0"/>
+      <c r="G94" s="0"/>
+      <c r="H94" s="0"/>
+      <c r="I94" s="0"/>
+      <c r="J94" s="0"/>
+      <c r="K94" s="0"/>
+      <c r="L94" s="0"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="0"/>
+      <c r="O94" s="0"/>
+      <c r="P94" s="0"/>
+      <c r="Q94" s="0"/>
+      <c r="R94" s="0"/>
+      <c r="S94" s="0"/>
+      <c r="T94" s="0"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="0"/>
+      <c r="W94" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X94" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y94" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z94" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA94" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB94" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7594,9 +9434,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B96" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "REEFER CONTAINER-(REEFER CONTAINER)", "DOOR INNER PANEL-(DOOR INNER PANEL)", "F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B96" s="0"/>
+      <c r="C96" s="0"/>
+      <c r="D96" s="0"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
+      <c r="H96" s="0"/>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
+      <c r="K96" s="0"/>
+      <c r="L96" s="0"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="0"/>
+      <c r="O96" s="0"/>
+      <c r="P96" s="0"/>
+      <c r="Q96" s="0"/>
+      <c r="R96" s="0"/>
+      <c r="S96" s="0"/>
+      <c r="T96" s="0"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="0"/>
+      <c r="W96" s="0" t="inlineStr">
+        <is>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+        </is>
+      </c>
+      <c r="X96" s="0" t="inlineStr">
+        <is>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+        </is>
+      </c>
+      <c r="Y96" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z96" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA96" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB96" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7830,9 +9716,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B99" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR GASKET CUT 03' &amp; 03'", "", "", ""]</t>
+      <c r="B99" s="0"/>
+      <c r="C99" s="0"/>
+      <c r="D99" s="0"/>
+      <c r="E99" s="0"/>
+      <c r="F99" s="0"/>
+      <c r="G99" s="0"/>
+      <c r="H99" s="0"/>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0"/>
+      <c r="L99" s="0"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="0"/>
+      <c r="O99" s="0"/>
+      <c r="P99" s="0"/>
+      <c r="Q99" s="0"/>
+      <c r="R99" s="0"/>
+      <c r="S99" s="0"/>
+      <c r="T99" s="0"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="0"/>
+      <c r="W99" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X99" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y99" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR GASKET CUT 03' &amp; 03'</t>
+        </is>
+      </c>
+      <c r="Z99" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA99" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB99" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7842,9 +9774,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B100" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "EXTERNAL PANEL RUSTED CORROSION.", "", "", ""]</t>
+      <c r="B100" s="0"/>
+      <c r="C100" s="0"/>
+      <c r="D100" s="0"/>
+      <c r="E100" s="0"/>
+      <c r="F100" s="0"/>
+      <c r="G100" s="0"/>
+      <c r="H100" s="0"/>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
+      <c r="K100" s="0"/>
+      <c r="L100" s="0"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="0"/>
+      <c r="O100" s="0"/>
+      <c r="P100" s="0"/>
+      <c r="Q100" s="0"/>
+      <c r="R100" s="0"/>
+      <c r="S100" s="0"/>
+      <c r="T100" s="0"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="0"/>
+      <c r="W100" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X100" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y100" s="0" t="inlineStr">
+        <is>
+          <t>EXTERNAL PANEL RUSTED CORROSION.</t>
+        </is>
+      </c>
+      <c r="Z100" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA100" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB100" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -7854,9 +9832,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B101" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED", "", "", ""]</t>
+      <c r="B101" s="0"/>
+      <c r="C101" s="0"/>
+      <c r="D101" s="0"/>
+      <c r="E101" s="0"/>
+      <c r="F101" s="0"/>
+      <c r="G101" s="0"/>
+      <c r="H101" s="0"/>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+      <c r="K101" s="0"/>
+      <c r="L101" s="0"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="0"/>
+      <c r="O101" s="0"/>
+      <c r="P101" s="0"/>
+      <c r="Q101" s="0"/>
+      <c r="R101" s="0"/>
+      <c r="S101" s="0"/>
+      <c r="T101" s="0"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="0"/>
+      <c r="W101" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X101" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y101" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD BLACK STAIN &amp; MUD DUST &amp; SCRATCHED</t>
+        </is>
+      </c>
+      <c r="Z101" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA101" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB101" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8266,9 +10290,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B106" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY DUST .", "", "", ""]</t>
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+      <c r="D106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="0"/>
+      <c r="G106" s="0"/>
+      <c r="H106" s="0"/>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
+      <c r="K106" s="0"/>
+      <c r="L106" s="0"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="0"/>
+      <c r="O106" s="0"/>
+      <c r="P106" s="0"/>
+      <c r="Q106" s="0"/>
+      <c r="R106" s="0"/>
+      <c r="S106" s="0"/>
+      <c r="T106" s="0"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="0"/>
+      <c r="W106" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X106" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y106" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY DUST .</t>
+        </is>
+      </c>
+      <c r="Z106" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA106" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB106" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -8390,9 +10460,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B108" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY DUST.", "", "", ""]</t>
+      <c r="B108" s="0"/>
+      <c r="C108" s="0"/>
+      <c r="D108" s="0"/>
+      <c r="E108" s="0"/>
+      <c r="F108" s="0"/>
+      <c r="G108" s="0"/>
+      <c r="H108" s="0"/>
+      <c r="I108" s="0"/>
+      <c r="J108" s="0"/>
+      <c r="K108" s="0"/>
+      <c r="L108" s="0"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="0"/>
+      <c r="O108" s="0"/>
+      <c r="P108" s="0"/>
+      <c r="Q108" s="0"/>
+      <c r="R108" s="0"/>
+      <c r="S108" s="0"/>
+      <c r="T108" s="0"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="0"/>
+      <c r="W108" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X108" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y108" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY DUST.</t>
+        </is>
+      </c>
+      <c r="Z108" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA108" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB108" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9274,9 +11390,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B117" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY WASTES PAPER DUST", "", "", ""]</t>
+      <c r="B117" s="0"/>
+      <c r="C117" s="0"/>
+      <c r="D117" s="0"/>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+      <c r="G117" s="0"/>
+      <c r="H117" s="0"/>
+      <c r="I117" s="0"/>
+      <c r="J117" s="0"/>
+      <c r="K117" s="0"/>
+      <c r="L117" s="0"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="0"/>
+      <c r="O117" s="0"/>
+      <c r="P117" s="0"/>
+      <c r="Q117" s="0"/>
+      <c r="R117" s="0"/>
+      <c r="S117" s="0"/>
+      <c r="T117" s="0"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="0"/>
+      <c r="W117" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X117" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y117" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY WASTES PAPER DUST</t>
+        </is>
+      </c>
+      <c r="Z117" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA117" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB117" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9398,9 +11560,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B119" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+      <c r="B119" s="0"/>
+      <c r="C119" s="0"/>
+      <c r="D119" s="0"/>
+      <c r="E119" s="0"/>
+      <c r="F119" s="0"/>
+      <c r="G119" s="0"/>
+      <c r="H119" s="0"/>
+      <c r="I119" s="0"/>
+      <c r="J119" s="0"/>
+      <c r="K119" s="0"/>
+      <c r="L119" s="0"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="0"/>
+      <c r="O119" s="0"/>
+      <c r="P119" s="0"/>
+      <c r="Q119" s="0"/>
+      <c r="R119" s="0"/>
+      <c r="S119" s="0"/>
+      <c r="T119" s="0"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="0"/>
+      <c r="W119" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X119" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y119" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST</t>
+        </is>
+      </c>
+      <c r="Z119" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA119" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB119" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9858,9 +12066,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B124" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY WASTES PAPER DUST ", "", "", ""]</t>
+      <c r="B124" s="0"/>
+      <c r="C124" s="0"/>
+      <c r="D124" s="0"/>
+      <c r="E124" s="0"/>
+      <c r="F124" s="0"/>
+      <c r="G124" s="0"/>
+      <c r="H124" s="0"/>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+      <c r="K124" s="0"/>
+      <c r="L124" s="0"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="0"/>
+      <c r="O124" s="0"/>
+      <c r="P124" s="0"/>
+      <c r="Q124" s="0"/>
+      <c r="R124" s="0"/>
+      <c r="S124" s="0"/>
+      <c r="T124" s="0"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="0"/>
+      <c r="W124" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X124" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y124" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY WASTES PAPER DUST </t>
+        </is>
+      </c>
+      <c r="Z124" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA124" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB124" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10318,9 +12572,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B129" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY WASTES PAPER DUST", "", "", ""]</t>
+      <c r="B129" s="0"/>
+      <c r="C129" s="0"/>
+      <c r="D129" s="0"/>
+      <c r="E129" s="0"/>
+      <c r="F129" s="0"/>
+      <c r="G129" s="0"/>
+      <c r="H129" s="0"/>
+      <c r="I129" s="0"/>
+      <c r="J129" s="0"/>
+      <c r="K129" s="0"/>
+      <c r="L129" s="0"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="0"/>
+      <c r="O129" s="0"/>
+      <c r="P129" s="0"/>
+      <c r="Q129" s="0"/>
+      <c r="R129" s="0"/>
+      <c r="S129" s="0"/>
+      <c r="T129" s="0"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="0"/>
+      <c r="W129" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X129" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y129" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY WASTES PAPER DUST</t>
+        </is>
+      </c>
+      <c r="Z129" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA129" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB129" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10778,9 +13078,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B134" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B134" s="0"/>
+      <c r="C134" s="0"/>
+      <c r="D134" s="0"/>
+      <c r="E134" s="0"/>
+      <c r="F134" s="0"/>
+      <c r="G134" s="0"/>
+      <c r="H134" s="0"/>
+      <c r="I134" s="0"/>
+      <c r="J134" s="0"/>
+      <c r="K134" s="0"/>
+      <c r="L134" s="0"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="0"/>
+      <c r="O134" s="0"/>
+      <c r="P134" s="0"/>
+      <c r="Q134" s="0"/>
+      <c r="R134" s="0"/>
+      <c r="S134" s="0"/>
+      <c r="T134" s="0"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="0"/>
+      <c r="W134" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X134" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y134" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z134" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA134" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB134" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -10902,9 +13248,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B136" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B136" s="0"/>
+      <c r="C136" s="0"/>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
+      <c r="F136" s="0"/>
+      <c r="G136" s="0"/>
+      <c r="H136" s="0"/>
+      <c r="I136" s="0"/>
+      <c r="J136" s="0"/>
+      <c r="K136" s="0"/>
+      <c r="L136" s="0"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="0"/>
+      <c r="O136" s="0"/>
+      <c r="P136" s="0"/>
+      <c r="Q136" s="0"/>
+      <c r="R136" s="0"/>
+      <c r="S136" s="0"/>
+      <c r="T136" s="0"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="0"/>
+      <c r="W136" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X136" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y136" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z136" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA136" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB136" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11026,9 +13418,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B138" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B138" s="0"/>
+      <c r="C138" s="0"/>
+      <c r="D138" s="0"/>
+      <c r="E138" s="0"/>
+      <c r="F138" s="0"/>
+      <c r="G138" s="0"/>
+      <c r="H138" s="0"/>
+      <c r="I138" s="0"/>
+      <c r="J138" s="0"/>
+      <c r="K138" s="0"/>
+      <c r="L138" s="0"/>
+      <c r="M138" s="4"/>
+      <c r="N138" s="0"/>
+      <c r="O138" s="0"/>
+      <c r="P138" s="0"/>
+      <c r="Q138" s="0"/>
+      <c r="R138" s="0"/>
+      <c r="S138" s="0"/>
+      <c r="T138" s="0"/>
+      <c r="U138" s="4"/>
+      <c r="V138" s="0"/>
+      <c r="W138" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X138" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y138" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z138" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA138" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB138" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11150,9 +13588,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B140" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B140" s="0"/>
+      <c r="C140" s="0"/>
+      <c r="D140" s="0"/>
+      <c r="E140" s="0"/>
+      <c r="F140" s="0"/>
+      <c r="G140" s="0"/>
+      <c r="H140" s="0"/>
+      <c r="I140" s="0"/>
+      <c r="J140" s="0"/>
+      <c r="K140" s="0"/>
+      <c r="L140" s="0"/>
+      <c r="M140" s="4"/>
+      <c r="N140" s="0"/>
+      <c r="O140" s="0"/>
+      <c r="P140" s="0"/>
+      <c r="Q140" s="0"/>
+      <c r="R140" s="0"/>
+      <c r="S140" s="0"/>
+      <c r="T140" s="0"/>
+      <c r="U140" s="4"/>
+      <c r="V140" s="0"/>
+      <c r="W140" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X140" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y140" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z140" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA140" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB140" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11274,9 +13758,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B142" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B142" s="0"/>
+      <c r="C142" s="0"/>
+      <c r="D142" s="0"/>
+      <c r="E142" s="0"/>
+      <c r="F142" s="0"/>
+      <c r="G142" s="0"/>
+      <c r="H142" s="0"/>
+      <c r="I142" s="0"/>
+      <c r="J142" s="0"/>
+      <c r="K142" s="0"/>
+      <c r="L142" s="0"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="0"/>
+      <c r="O142" s="0"/>
+      <c r="P142" s="0"/>
+      <c r="Q142" s="0"/>
+      <c r="R142" s="0"/>
+      <c r="S142" s="0"/>
+      <c r="T142" s="0"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="0"/>
+      <c r="W142" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X142" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y142" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z142" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA142" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB142" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11398,9 +13928,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B144" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="D144" s="0"/>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+      <c r="H144" s="0"/>
+      <c r="I144" s="0"/>
+      <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
+      <c r="L144" s="0"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="0"/>
+      <c r="O144" s="0"/>
+      <c r="P144" s="0"/>
+      <c r="Q144" s="0"/>
+      <c r="R144" s="0"/>
+      <c r="S144" s="0"/>
+      <c r="T144" s="0"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="0"/>
+      <c r="W144" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X144" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y144" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z144" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA144" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB144" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11522,9 +14098,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B146" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY LENTILS DUST  &amp; ODOUR .", "", "", ""]</t>
+      <c r="B146" s="0"/>
+      <c r="C146" s="0"/>
+      <c r="D146" s="0"/>
+      <c r="E146" s="0"/>
+      <c r="F146" s="0"/>
+      <c r="G146" s="0"/>
+      <c r="H146" s="0"/>
+      <c r="I146" s="0"/>
+      <c r="J146" s="0"/>
+      <c r="K146" s="0"/>
+      <c r="L146" s="0"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="0"/>
+      <c r="O146" s="0"/>
+      <c r="P146" s="0"/>
+      <c r="Q146" s="0"/>
+      <c r="R146" s="0"/>
+      <c r="S146" s="0"/>
+      <c r="T146" s="0"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="0"/>
+      <c r="W146" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X146" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y146" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY LENTILS DUST  &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z146" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA146" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB146" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11758,9 +14380,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B149" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY DUST", "", "", ""]</t>
+      <c r="B149" s="0"/>
+      <c r="C149" s="0"/>
+      <c r="D149" s="0"/>
+      <c r="E149" s="0"/>
+      <c r="F149" s="0"/>
+      <c r="G149" s="0"/>
+      <c r="H149" s="0"/>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
+      <c r="K149" s="0"/>
+      <c r="L149" s="0"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="0"/>
+      <c r="O149" s="0"/>
+      <c r="P149" s="0"/>
+      <c r="Q149" s="0"/>
+      <c r="R149" s="0"/>
+      <c r="S149" s="0"/>
+      <c r="T149" s="0"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="0"/>
+      <c r="W149" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X149" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y149" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY DUST</t>
+        </is>
+      </c>
+      <c r="Z149" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA149" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB149" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -11882,9 +14550,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B151" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY MILK POWDER &amp; OUDOR.", "", "", ""]</t>
+      <c r="B151" s="0"/>
+      <c r="C151" s="0"/>
+      <c r="D151" s="0"/>
+      <c r="E151" s="0"/>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
+      <c r="H151" s="0"/>
+      <c r="I151" s="0"/>
+      <c r="J151" s="0"/>
+      <c r="K151" s="0"/>
+      <c r="L151" s="0"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="0"/>
+      <c r="O151" s="0"/>
+      <c r="P151" s="0"/>
+      <c r="Q151" s="0"/>
+      <c r="R151" s="0"/>
+      <c r="S151" s="0"/>
+      <c r="T151" s="0"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="0"/>
+      <c r="W151" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X151" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y151" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY MILK POWDER &amp; OUDOR.</t>
+        </is>
+      </c>
+      <c r="Z151" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA151" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB151" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12230,9 +14944,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B155" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B155" s="0"/>
+      <c r="C155" s="0"/>
+      <c r="D155" s="0"/>
+      <c r="E155" s="0"/>
+      <c r="F155" s="0"/>
+      <c r="G155" s="0"/>
+      <c r="H155" s="0"/>
+      <c r="I155" s="0"/>
+      <c r="J155" s="0"/>
+      <c r="K155" s="0"/>
+      <c r="L155" s="0"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="0"/>
+      <c r="O155" s="0"/>
+      <c r="P155" s="0"/>
+      <c r="Q155" s="0"/>
+      <c r="R155" s="0"/>
+      <c r="S155" s="0"/>
+      <c r="T155" s="0"/>
+      <c r="U155" s="4"/>
+      <c r="V155" s="0"/>
+      <c r="W155" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X155" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y155" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z155" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA155" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB155" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12354,9 +15114,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B157" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B157" s="0"/>
+      <c r="C157" s="0"/>
+      <c r="D157" s="0"/>
+      <c r="E157" s="0"/>
+      <c r="F157" s="0"/>
+      <c r="G157" s="0"/>
+      <c r="H157" s="0"/>
+      <c r="I157" s="0"/>
+      <c r="J157" s="0"/>
+      <c r="K157" s="0"/>
+      <c r="L157" s="0"/>
+      <c r="M157" s="4"/>
+      <c r="N157" s="0"/>
+      <c r="O157" s="0"/>
+      <c r="P157" s="0"/>
+      <c r="Q157" s="0"/>
+      <c r="R157" s="0"/>
+      <c r="S157" s="0"/>
+      <c r="T157" s="0"/>
+      <c r="U157" s="4"/>
+      <c r="V157" s="0"/>
+      <c r="W157" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X157" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y157" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z157" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA157" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB157" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12478,9 +15284,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B159" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B159" s="0"/>
+      <c r="C159" s="0"/>
+      <c r="D159" s="0"/>
+      <c r="E159" s="0"/>
+      <c r="F159" s="0"/>
+      <c r="G159" s="0"/>
+      <c r="H159" s="0"/>
+      <c r="I159" s="0"/>
+      <c r="J159" s="0"/>
+      <c r="K159" s="0"/>
+      <c r="L159" s="0"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="0"/>
+      <c r="O159" s="0"/>
+      <c r="P159" s="0"/>
+      <c r="Q159" s="0"/>
+      <c r="R159" s="0"/>
+      <c r="S159" s="0"/>
+      <c r="T159" s="0"/>
+      <c r="U159" s="4"/>
+      <c r="V159" s="0"/>
+      <c r="W159" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X159" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y159" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z159" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA159" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB159" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12602,9 +15454,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B161" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B161" s="0"/>
+      <c r="C161" s="0"/>
+      <c r="D161" s="0"/>
+      <c r="E161" s="0"/>
+      <c r="F161" s="0"/>
+      <c r="G161" s="0"/>
+      <c r="H161" s="0"/>
+      <c r="I161" s="0"/>
+      <c r="J161" s="0"/>
+      <c r="K161" s="0"/>
+      <c r="L161" s="0"/>
+      <c r="M161" s="4"/>
+      <c r="N161" s="0"/>
+      <c r="O161" s="0"/>
+      <c r="P161" s="0"/>
+      <c r="Q161" s="0"/>
+      <c r="R161" s="0"/>
+      <c r="S161" s="0"/>
+      <c r="T161" s="0"/>
+      <c r="U161" s="4"/>
+      <c r="V161" s="0"/>
+      <c r="W161" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X161" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y161" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z161" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA161" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB161" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12726,9 +15624,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B163" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SCRACHED,SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
+      <c r="H163" s="0"/>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
+      <c r="K163" s="0"/>
+      <c r="L163" s="0"/>
+      <c r="M163" s="4"/>
+      <c r="N163" s="0"/>
+      <c r="O163" s="0"/>
+      <c r="P163" s="0"/>
+      <c r="Q163" s="0"/>
+      <c r="R163" s="0"/>
+      <c r="S163" s="0"/>
+      <c r="T163" s="0"/>
+      <c r="U163" s="4"/>
+      <c r="V163" s="0"/>
+      <c r="W163" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X163" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y163" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SCRACHED,SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z163" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA163" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB163" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12850,9 +15794,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B165" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B165" s="0"/>
+      <c r="C165" s="0"/>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="0"/>
+      <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+      <c r="K165" s="0"/>
+      <c r="L165" s="0"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="0"/>
+      <c r="O165" s="0"/>
+      <c r="P165" s="0"/>
+      <c r="Q165" s="0"/>
+      <c r="R165" s="0"/>
+      <c r="S165" s="0"/>
+      <c r="T165" s="0"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="0"/>
+      <c r="W165" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X165" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y165" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z165" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA165" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB165" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -12974,9 +15964,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B167" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="D167" s="0"/>
+      <c r="E167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
+      <c r="H167" s="0"/>
+      <c r="I167" s="0"/>
+      <c r="J167" s="0"/>
+      <c r="K167" s="0"/>
+      <c r="L167" s="0"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="0"/>
+      <c r="O167" s="0"/>
+      <c r="P167" s="0"/>
+      <c r="Q167" s="0"/>
+      <c r="R167" s="0"/>
+      <c r="S167" s="0"/>
+      <c r="T167" s="0"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="0"/>
+      <c r="W167" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X167" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y167" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z167" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA167" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB167" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13098,9 +16134,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B169" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B169" s="0"/>
+      <c r="C169" s="0"/>
+      <c r="D169" s="0"/>
+      <c r="E169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
+      <c r="H169" s="0"/>
+      <c r="I169" s="0"/>
+      <c r="J169" s="0"/>
+      <c r="K169" s="0"/>
+      <c r="L169" s="0"/>
+      <c r="M169" s="4"/>
+      <c r="N169" s="0"/>
+      <c r="O169" s="0"/>
+      <c r="P169" s="0"/>
+      <c r="Q169" s="0"/>
+      <c r="R169" s="0"/>
+      <c r="S169" s="0"/>
+      <c r="T169" s="0"/>
+      <c r="U169" s="4"/>
+      <c r="V169" s="0"/>
+      <c r="W169" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X169" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y169" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z169" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA169" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB169" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13222,9 +16304,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B171" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B171" s="0"/>
+      <c r="C171" s="0"/>
+      <c r="D171" s="0"/>
+      <c r="E171" s="0"/>
+      <c r="F171" s="0"/>
+      <c r="G171" s="0"/>
+      <c r="H171" s="0"/>
+      <c r="I171" s="0"/>
+      <c r="J171" s="0"/>
+      <c r="K171" s="0"/>
+      <c r="L171" s="0"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="0"/>
+      <c r="O171" s="0"/>
+      <c r="P171" s="0"/>
+      <c r="Q171" s="0"/>
+      <c r="R171" s="0"/>
+      <c r="S171" s="0"/>
+      <c r="T171" s="0"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="0"/>
+      <c r="W171" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X171" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y171" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z171" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA171" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB171" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13346,9 +16474,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B173" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B173" s="0"/>
+      <c r="C173" s="0"/>
+      <c r="D173" s="0"/>
+      <c r="E173" s="0"/>
+      <c r="F173" s="0"/>
+      <c r="G173" s="0"/>
+      <c r="H173" s="0"/>
+      <c r="I173" s="0"/>
+      <c r="J173" s="0"/>
+      <c r="K173" s="0"/>
+      <c r="L173" s="0"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="0"/>
+      <c r="O173" s="0"/>
+      <c r="P173" s="0"/>
+      <c r="Q173" s="0"/>
+      <c r="R173" s="0"/>
+      <c r="S173" s="0"/>
+      <c r="T173" s="0"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="0"/>
+      <c r="W173" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X173" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y173" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY BADLY  SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z173" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA173" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB173" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13470,9 +16644,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B175" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B175" s="0"/>
+      <c r="C175" s="0"/>
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
+      <c r="H175" s="0"/>
+      <c r="I175" s="0"/>
+      <c r="J175" s="0"/>
+      <c r="K175" s="0"/>
+      <c r="L175" s="0"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="0"/>
+      <c r="O175" s="0"/>
+      <c r="P175" s="0"/>
+      <c r="Q175" s="0"/>
+      <c r="R175" s="0"/>
+      <c r="S175" s="0"/>
+      <c r="T175" s="0"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="0"/>
+      <c r="W175" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X175" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y175" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY SODIUM SULPHATE DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z175" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA175" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB175" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -13706,9 +16926,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B178" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "FLOOR BOARD-(FLOOR BOARD)", "F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .", "", "", ""]</t>
+      <c r="B178" s="0"/>
+      <c r="C178" s="0"/>
+      <c r="D178" s="0"/>
+      <c r="E178" s="0"/>
+      <c r="F178" s="0"/>
+      <c r="G178" s="0"/>
+      <c r="H178" s="0"/>
+      <c r="I178" s="0"/>
+      <c r="J178" s="0"/>
+      <c r="K178" s="0"/>
+      <c r="L178" s="0"/>
+      <c r="M178" s="4"/>
+      <c r="N178" s="0"/>
+      <c r="O178" s="0"/>
+      <c r="P178" s="0"/>
+      <c r="Q178" s="0"/>
+      <c r="R178" s="0"/>
+      <c r="S178" s="0"/>
+      <c r="T178" s="0"/>
+      <c r="U178" s="4"/>
+      <c r="V178" s="0"/>
+      <c r="W178" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X178" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+        </is>
+      </c>
+      <c r="Y178" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY PVC RESIN DUST &amp; ODOUR .</t>
+        </is>
+      </c>
+      <c r="Z178" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA178" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB178" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_61_.xlsx
+++ b/reports/_PIL_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_61_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:102</t>
+          <t>Total number of containers:102</t>
         </is>
       </c>
     </row>
